--- a/2022/Realme/Others/C11 Price Adjusment 27.08.2022.xlsx
+++ b/2022/Realme/Others/C11 Price Adjusment 27.08.2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="13905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">开具了售后证明的坏机在叶子系统无售后记录，若区域能提供坏机条码和对应的垫机串码，则该机条码可以补差。(垫机条码必须是未核销状态)
@@ -80,7 +80,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>with after-sales proof</t>
@@ -90,7 +90,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> but without after-sales record in leaf system, this kind of can include price adjustment if the area provides the failed phone and corresponding phone advanced IMEI. (the status of phone advanced IMEI cannot be sold out）
@@ -1581,7 +1581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,11 +1590,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,14 +1609,14 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1655,17 +1662,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1674,8 +1681,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1956,8 +1966,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5202,10 +5212,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6532,7 +6542,7 @@
       <c r="E72" s="7">
         <v>866903055087538</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="9" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6549,10 +6559,10 @@
       <c r="D73" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="7">
         <v>866903055088635</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="9" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7439,6 +7449,12 @@
         <v>406</v>
       </c>
       <c r="F122" s="5"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="E127" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F122">
